--- a/set_slack/template/noti_template.xlsx
+++ b/set_slack/template/noti_template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmi/Documents/dev/godo-data/godoAPIs/set_slack/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmipartners\Documents\gododev\godoAPIs\set_slack\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9511EFCF-8FA6-F649-A033-60FD4E506011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D2D66-AFDF-4C1D-86B4-F3236148CB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{8F8CA29C-D4DF-EA47-8F95-32E76A4FAEB1}"/>
+    <workbookView xWindow="2790" yWindow="3195" windowWidth="26205" windowHeight="13950" activeTab="1" xr2:uid="{8F8CA29C-D4DF-EA47-8F95-32E76A4FAEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="option" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>상품번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +60,38 @@
   </si>
   <si>
     <t>예약배송일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입처명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체옵션코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션배송상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션품절상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션노출상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입처명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,32 +456,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755B291B-63A5-BD49-8CEE-4D8F7BB32324}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31D505-610D-494C-B45B-0637FE73F3FF}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
